--- a/Naive_model_expcoefandCIs.xlsx
+++ b/Naive_model_expcoefandCIs.xlsx
@@ -421,28 +421,28 @@
         </is>
       </c>
       <c r="B2">
-        <v>8.263066127465411</v>
+        <v>7.698778472678998</v>
       </c>
       <c r="C2">
-        <v>1.338264973260549</v>
+        <v>1.363176279576358</v>
       </c>
       <c r="D2">
         <v>0.95</v>
       </c>
       <c r="E2">
-        <v>5.973637255092624</v>
+        <v>5.40772626876221</v>
       </c>
       <c r="F2">
-        <v>11.42993103048865</v>
+        <v>10.96046416287123</v>
       </c>
       <c r="G2">
-        <v>13.03920227688303</v>
+        <v>11.52725581483737</v>
       </c>
       <c r="H2">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="I2">
-        <v>1.313428864489551e-18</v>
+        <v>9.624746587671436e-18</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -457,28 +457,28 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.29971138411302</v>
+        <v>1.253128312156213</v>
       </c>
       <c r="C3">
-        <v>0.1095365636090089</v>
+        <v>0.1164123145080486</v>
       </c>
       <c r="D3">
         <v>0.95</v>
       </c>
       <c r="E3">
-        <v>1.097806278286547</v>
+        <v>1.041141709001563</v>
       </c>
       <c r="F3">
-        <v>1.538750247110589</v>
+        <v>1.508277454596839</v>
       </c>
       <c r="G3">
-        <v>3.110461258238096</v>
+        <v>2.428950291482021</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="I3">
-        <v>0.002936934017904028</v>
+        <v>0.0177516578567471</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -493,28 +493,28 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.020845082379341</v>
+        <v>1.113449245245904</v>
       </c>
       <c r="C4">
-        <v>0.08350466021493869</v>
+        <v>0.1024633238441773</v>
       </c>
       <c r="D4">
         <v>0.95</v>
       </c>
       <c r="E4">
-        <v>0.866551812070142</v>
+        <v>0.9267059920048097</v>
       </c>
       <c r="F4">
-        <v>1.202610931859351</v>
+        <v>1.337823681334565</v>
       </c>
       <c r="G4">
-        <v>0.2522116370809545</v>
+        <v>1.167775694285943</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="I4">
-        <v>0.8018008815137954</v>
+        <v>0.2469166793241049</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -529,19 +529,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3120489097587769</v>
+        <v>0.3687536662949727</v>
       </c>
       <c r="C5">
-        <v>0.1328861239261117</v>
+        <v>0.1470858442822648</v>
       </c>
       <c r="D5">
         <v>0.95</v>
       </c>
       <c r="E5">
-        <v>0.1354372825332525</v>
+        <v>0.1687388631751712</v>
       </c>
       <c r="F5">
-        <v>0.7189639385871014</v>
+        <v>0.8058562434714364</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -561,19 +561,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.6251178223960058</v>
+        <v>0.7644819576451561</v>
       </c>
       <c r="C6">
-        <v>0.05905632064626677</v>
+        <v>0.06553010569404658</v>
       </c>
       <c r="D6">
         <v>0.95</v>
       </c>
       <c r="E6">
-        <v>0.5194537794656986</v>
+        <v>0.6462546450872847</v>
       </c>
       <c r="F6">
-        <v>0.7522753848842259</v>
+        <v>0.9043380469412881</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>

--- a/Naive_model_expcoefandCIs.xlsx
+++ b/Naive_model_expcoefandCIs.xlsx
@@ -421,28 +421,28 @@
         </is>
       </c>
       <c r="B2">
-        <v>7.698778472678998</v>
+        <v>7.832958323039179</v>
       </c>
       <c r="C2">
-        <v>1.363176279576358</v>
+        <v>1.509276333015388</v>
       </c>
       <c r="D2">
         <v>0.95</v>
       </c>
       <c r="E2">
-        <v>5.40772626876221</v>
+        <v>5.334214660706793</v>
       </c>
       <c r="F2">
-        <v>10.96046416287123</v>
+        <v>11.50220604026818</v>
       </c>
       <c r="G2">
-        <v>11.52725581483737</v>
+        <v>10.68253248286253</v>
       </c>
       <c r="H2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I2">
-        <v>9.624746587671436e-18</v>
+        <v>2.002494505827062e-16</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -457,28 +457,28 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.253128312156213</v>
+        <v>1.25136357696174</v>
       </c>
       <c r="C3">
-        <v>0.1164123145080486</v>
+        <v>0.1152787935547819</v>
       </c>
       <c r="D3">
         <v>0.95</v>
       </c>
       <c r="E3">
-        <v>1.041141709001563</v>
+        <v>1.041379927336398</v>
       </c>
       <c r="F3">
-        <v>1.508277454596839</v>
+        <v>1.503688289586787</v>
       </c>
       <c r="G3">
-        <v>2.428950291482021</v>
+        <v>2.434081970535658</v>
       </c>
       <c r="H3">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I3">
-        <v>0.0177516578567471</v>
+        <v>0.01744707443075149</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -493,28 +493,28 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.113449245245904</v>
+        <v>1.128207250911809</v>
       </c>
       <c r="C4">
-        <v>0.1024633238441773</v>
+        <v>0.1033888291451972</v>
       </c>
       <c r="D4">
         <v>0.95</v>
       </c>
       <c r="E4">
-        <v>0.9267059920048097</v>
+        <v>0.9397936456875995</v>
       </c>
       <c r="F4">
-        <v>1.337823681334565</v>
+        <v>1.354394772565951</v>
       </c>
       <c r="G4">
-        <v>1.167775694285943</v>
+        <v>1.316346207998587</v>
       </c>
       <c r="H4">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I4">
-        <v>0.2469166793241049</v>
+        <v>0.1922916592848526</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -529,19 +529,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3687536662949727</v>
+        <v>0.4150053675439141</v>
       </c>
       <c r="C5">
-        <v>0.1470858442822648</v>
+        <v>0.1715898206506627</v>
       </c>
       <c r="D5">
         <v>0.95</v>
       </c>
       <c r="E5">
-        <v>0.1687388631751712</v>
+        <v>0.1845493135221659</v>
       </c>
       <c r="F5">
-        <v>0.8058562434714364</v>
+        <v>0.9332435423531017</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -561,19 +561,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.7644819576451561</v>
+        <v>0.7667689196342531</v>
       </c>
       <c r="C6">
-        <v>0.06553010569404658</v>
+        <v>0.06573943399950502</v>
       </c>
       <c r="D6">
         <v>0.95</v>
       </c>
       <c r="E6">
-        <v>0.6462546450872847</v>
+        <v>0.6481659023865682</v>
       </c>
       <c r="F6">
-        <v>0.9043380469412881</v>
+        <v>0.907074213488067</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
